--- a/Свободное время.xlsx
+++ b/Свободное время.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlad_\PycharmProjects\algebra-dash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yacho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B047BF4-273F-451B-920C-BDF8A1DB85A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="gk">Лист1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>понедельник</t>
   </si>
@@ -75,18 +74,9 @@
     <t>c 10:20 до 20:00</t>
   </si>
   <si>
-    <t>Арсений</t>
-  </si>
-  <si>
     <t>Свободное время</t>
   </si>
   <si>
-    <t>с 18:00 до 22:00</t>
-  </si>
-  <si>
-    <t>c 10:20 до 22:00</t>
-  </si>
-  <si>
     <t>Андрей</t>
   </si>
   <si>
@@ -94,12 +84,33 @@
   </si>
   <si>
     <t>c 10:00 до 16:00</t>
+  </si>
+  <si>
+    <t>Карина</t>
+  </si>
+  <si>
+    <t>с 16:00 до 22:00</t>
+  </si>
+  <si>
+    <t>с 15:00 до 17:00</t>
+  </si>
+  <si>
+    <t>с 17:00 до 22:00</t>
+  </si>
+  <si>
+    <t>с 15:00 до 22:00</t>
+  </si>
+  <si>
+    <t>с 12:00 до 22:00</t>
+  </si>
+  <si>
+    <t>c 10:00 до 22:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -497,54 +508,54 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
